--- a/statystyki.xlsx
+++ b/statystyki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41240" yWindow="5240" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="440" windowWidth="26820" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>(45-E2)/((D2-C2+1)*F2)</f>
+        <f t="shared" ref="G2:G16" si="0">(45-E2)/((D2-C2+1)*F2)</f>
         <v>18.25</v>
       </c>
     </row>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f>(45-E3)/((D3-C3+1)*F3)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
     </row>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f>(45-E4)/((D4-C4+1)*F4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>(45-E5)/((D5-C5+1)*F5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <f>(45-E6)/((D6-C6+1)*F6)</f>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f>(45-E7)/((D7-C7+1)*F7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f>(45-E8)/((D8-C8+1)*F8)</f>
+        <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f>(45-E9)/((D9-C9+1)*F9)</f>
+        <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <f>(45-E10)/((D10-C10+1)*F10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>(45-E11)/((D11-C11+1)*F11)</f>
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <f>(45-E12)/((D12-C12+1)*F12)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f>(45-E13)/((D13-C13+1)*F13)</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <f>(45-E14)/((D14-C14+1)*F14)</f>
+        <f t="shared" si="0"/>
         <v>10.375</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f>(45-E15)/((D15-C15+1)*F15)</f>
+        <f t="shared" si="0"/>
         <v>5.833333333333333</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <f>(45-E16)/((D16-C16+1)*F16)</f>
+        <f t="shared" si="0"/>
         <v>2.9166666666666665</v>
       </c>
     </row>

--- a/statystyki.xlsx
+++ b/statystyki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="440" windowWidth="26820" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="440" windowWidth="37020" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>przedmiot</t>
   </si>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,16 +101,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,18 +132,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -147,20 +477,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0">
   <autoFilter ref="A1:G16"/>
   <sortState ref="A2:G16">
-    <sortCondition ref="A1:A16"/>
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="przedmiot"/>
     <tableColumn id="2" name="nazwa grupy"/>
     <tableColumn id="3" name="ilosc zdobytych punktow"/>
     <tableColumn id="4" name="maksymalna ilosc punktow"/>
-    <tableColumn id="5" name="czas" dataDxfId="0"/>
+    <tableColumn id="5" name="czas" dataDxfId="15"/>
     <tableColumn id="6" name="liczebność grupy"/>
     <tableColumn id="7" name="indeks ">
       <calculatedColumnFormula>(45-E2)/((D2-C2+1)*F2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B19:G34" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B19:G34"/>
+  <sortState ref="B20:G34">
+    <sortCondition ref="B19:B34"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="nazwa grupy" totalsRowLabel="Suma" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="ilosc zdobytych punktow" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="maksymalna ilosc punktow" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="czas" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="liczebność grupy" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="indeks " totalsRowFunction="sum" dataDxfId="7">
+      <calculatedColumnFormula>ROUNDUP(( (TIME(0,45,0)-E20)*1440 ) / ( ((D20-C20)/D20)+1*2 ),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -427,19 +777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -485,32 +836,32 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="0">(45-E2)/((D2-C2+1)*F2)</f>
+        <f>(45-E2)/((D2-C2+1)*F2)</f>
         <v>18.25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f>(45-E3)/((D3-C3+1)*F3)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -518,47 +869,47 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>(45-E4)/((D4-C4+1)*F4)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>(45-E5)/((D5-C5+1)*F5)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -566,23 +917,23 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
+        <f>(45-E6)/((D6-C6+1)*F6)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,47 +941,47 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>(45-E7)/((D7-C7+1)*F7)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>20.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
+        <f>(45-E8)/((D8-C8+1)*F8)</f>
+        <v>10.375</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -638,23 +989,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>12.6</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
+        <f>(45-E9)/((D9-C9+1)*F9)</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -674,11 +1025,11 @@
         <v>21</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(45-E10)/((D10-C10+1)*F10)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,23 +1037,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
+        <f>(45-E11)/((D11-C11+1)*F11)</f>
+        <v>12.25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -710,47 +1061,47 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>(45-E12)/((D12-C12+1)*F12)</f>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>12.6</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
+        <f>(45-E13)/((D13-C13+1)*F13)</f>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,77 +1109,466 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>10.375</v>
+        <f>(45-E14)/((D14-C14+1)*F14)</f>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
+        <f>(45-E15)/((D15-C15+1)*F15)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>(45-E16)/((D16-C16+1)*F16)</f>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="8">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.9143518518518521E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E20)*1440 ) / ( ((D20-C20)/D20)+1*2 ),2)</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E21)*1440 ) / ( ((D21-C21)/D21)+1*2 ),2)</f>
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>7.037037037037037E-3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E22)*1440 ) / ( ((D22-C22)/D22)+1*2 ),2)</f>
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.8935185185185188E-3</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E23)*1440 ) / ( ((D23-C23)/D23)+1*2 ),2)</f>
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.224537037037037E-2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E24)*1440 ) / ( ((D24-C24)/D24)+1*2 ),2)</f>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>9.6990740740740735E-3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E25)*1440 ) / ( ((D25-C25)/D25)+1*2 ),2)</f>
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E26)*1440 ) / ( ((D26-C26)/D26)+1*2 ),2)</f>
+        <v>18.450000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E27)*1440 ) / ( ((D27-C27)/D27)+1*2 ),2)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.4340277777777776E-2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E28)*1440 ) / ( ((D28-C28)/D28)+1*2 ),2)</f>
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1.4178240740740741E-2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E29)*1440 ) / ( ((D29-C29)/D29)+1*2 ),2)</f>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7">
+        <v>6.7592592592592591E-3</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E30)*1440 ) / ( ((D30-C30)/D30)+1*2 ),2)</f>
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666665</v>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>8.7962962962962968E-3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E31)*1440 ) / ( ((D31-C31)/D31)+1*2 ),2)</f>
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>7.1296296296296307E-3</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E32)*1440 ) / ( ((D32-C32)/D32)+1*2 ),2)</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.4467592592592593E-2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E33)*1440 ) / ( ((D33-C33)/D33)+1*2 ),2)</f>
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1.5092592592592593E-2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <f>ROUNDUP(( (TIME(0,45,0)-E34)*1440 ) / ( ((D34-C34)/D34)+1*2 ),2)</f>
+        <v>7.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/statystyki.xlsx
+++ b/statystyki.xlsx
@@ -173,27 +173,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -240,95 +220,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -447,6 +338,105 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="1"/>
@@ -454,11 +444,21 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -495,18 +495,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B19:G34" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B19:G34" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="B19:G34"/>
   <sortState ref="B20:G34">
     <sortCondition ref="B19:B34"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="nazwa grupy" totalsRowLabel="Suma" dataDxfId="12" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="ilosc zdobytych punktow" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="maksymalna ilosc punktow" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="czas" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="liczebność grupy" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="indeks " totalsRowFunction="sum" dataDxfId="7">
+    <tableColumn id="1" name="nazwa grupy" totalsRowLabel="Suma" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="ilosc zdobytych punktow" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="maksymalna ilosc punktow" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="czas" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="liczebność grupy" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="indeks " totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>ROUNDUP(( (TIME(0,45,0)-E20)*1440 ) / ( ((D20-C20)/D20)+1*2 ),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>(45-E2)/((D2-C2+1)*F2)</f>
+        <f t="shared" ref="G2:G16" si="0">(45-E2)/((D2-C2+1)*F2)</f>
         <v>18.25</v>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f>(45-E3)/((D3-C3+1)*F3)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f>(45-E4)/((D4-C4+1)*F4)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>(45-E5)/((D5-C5+1)*F5)</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <f>(45-E6)/((D6-C6+1)*F6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f>(45-E7)/((D7-C7+1)*F7)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f>(45-E8)/((D8-C8+1)*F8)</f>
+        <f t="shared" si="0"/>
         <v>10.375</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f>(45-E9)/((D9-C9+1)*F9)</f>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>(45-E10)/((D10-C10+1)*F10)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <f>(45-E11)/((D11-C11+1)*F11)</f>
+        <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <f>(45-E12)/((D12-C12+1)*F12)</f>
+        <f t="shared" si="0"/>
         <v>5.833333333333333</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f>(45-E13)/((D13-C13+1)*F13)</f>
+        <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f>(45-E14)/((D14-C14+1)*F14)</f>
+        <f t="shared" si="0"/>
         <v>2.9166666666666665</v>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <f>(45-E15)/((D15-C15+1)*F15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>(45-E16)/((D16-C16+1)*F16)</f>
+        <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E20)*1440 ) / ( ((D20-C20)/D20)+1*2 ),2)</f>
+        <f t="shared" ref="G20:G34" si="1">ROUNDUP(( (TIME(0,45,0)-E20)*1440 ) / ( ((D20-C20)/D20)+1*2 ),2)</f>
         <v>18.25</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E21)*1440 ) / ( ((D21-C21)/D21)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E22)*1440 ) / ( ((D22-C22)/D22)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>17.440000000000001</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E23)*1440 ) / ( ((D23-C23)/D23)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>20.420000000000002</v>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E24)*1440 ) / ( ((D24-C24)/D24)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>10.95</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E25)*1440 ) / ( ((D25-C25)/D25)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>12.42</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E26)*1440 ) / ( ((D26-C26)/D26)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>18.450000000000003</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E27)*1440 ) / ( ((D27-C27)/D27)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E28)*1440 ) / ( ((D28-C28)/D28)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>12.18</v>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E29)*1440 ) / ( ((D29-C29)/D29)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>12.299999999999999</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E30)*1440 ) / ( ((D30-C30)/D30)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>14.11</v>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E31)*1440 ) / ( ((D31-C31)/D31)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>10.78</v>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E32)*1440 ) / ( ((D32-C32)/D32)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E33)*1440 ) / ( ((D33-C33)/D33)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>9.67</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <f>ROUNDUP(( (TIME(0,45,0)-E34)*1440 ) / ( ((D34-C34)/D34)+1*2 ),2)</f>
+        <f t="shared" si="1"/>
         <v>7.76</v>
       </c>
     </row>
